--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>9.17777466476622</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H2">
-        <v>9.17777466476622</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I2">
-        <v>0.7737365510941532</v>
+        <v>0.002265018822860075</v>
       </c>
       <c r="J2">
-        <v>0.7737365510941532</v>
+        <v>0.002265018822860075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.75437306672444</v>
+        <v>6.418229333333334</v>
       </c>
       <c r="N2">
-        <v>2.75437306672444</v>
+        <v>19.254688</v>
       </c>
       <c r="O2">
-        <v>0.2675748635723513</v>
+        <v>0.4263166911921744</v>
       </c>
       <c r="P2">
-        <v>0.2675748635723513</v>
+        <v>0.4263166911921744</v>
       </c>
       <c r="Q2">
-        <v>25.279015349098</v>
+        <v>0.1947397750222222</v>
       </c>
       <c r="R2">
-        <v>25.279015349098</v>
+        <v>1.7526579752</v>
       </c>
       <c r="S2">
-        <v>0.2070324520999596</v>
+        <v>0.0009656153300497012</v>
       </c>
       <c r="T2">
-        <v>0.2070324520999596</v>
+        <v>0.0009656153300497012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>9.17777466476622</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H3">
-        <v>9.17777466476622</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I3">
-        <v>0.7737365510941532</v>
+        <v>0.002265018822860075</v>
       </c>
       <c r="J3">
-        <v>0.7737365510941532</v>
+        <v>0.002265018822860075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.78987213293396</v>
+        <v>3.860692</v>
       </c>
       <c r="N3">
-        <v>3.78987213293396</v>
+        <v>11.582076</v>
       </c>
       <c r="O3">
-        <v>0.3681689060851948</v>
+        <v>0.256437929165941</v>
       </c>
       <c r="P3">
-        <v>0.3681689060851948</v>
+        <v>0.256437929165941</v>
       </c>
       <c r="Q3">
-        <v>34.78259244434481</v>
+        <v>0.1171398297666667</v>
       </c>
       <c r="R3">
-        <v>34.78259244434481</v>
+        <v>1.0542584679</v>
       </c>
       <c r="S3">
-        <v>0.2848657396144658</v>
+        <v>0.0005808367364561152</v>
       </c>
       <c r="T3">
-        <v>0.2848657396144658</v>
+        <v>0.0005808367364561151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>9.17777466476622</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H4">
-        <v>9.17777466476622</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I4">
-        <v>0.7737365510941532</v>
+        <v>0.002265018822860075</v>
       </c>
       <c r="J4">
-        <v>0.7737365510941532</v>
+        <v>0.002265018822860075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.74959567145791</v>
+        <v>4.776152666666666</v>
       </c>
       <c r="N4">
-        <v>3.74959567145791</v>
+        <v>14.328458</v>
       </c>
       <c r="O4">
-        <v>0.364256230342454</v>
+        <v>0.3172453796418847</v>
       </c>
       <c r="P4">
-        <v>0.364256230342454</v>
+        <v>0.3172453796418846</v>
       </c>
       <c r="Q4">
-        <v>34.41294415662349</v>
+        <v>0.1449164321611111</v>
       </c>
       <c r="R4">
-        <v>34.41294415662349</v>
+        <v>1.30424788945</v>
       </c>
       <c r="S4">
-        <v>0.2818383593797278</v>
+        <v>0.0007185667563542593</v>
       </c>
       <c r="T4">
-        <v>0.2818383593797278</v>
+        <v>0.0007185667563542592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.68385272221425</v>
+        <v>10.326286</v>
       </c>
       <c r="H5">
-        <v>2.68385272221425</v>
+        <v>30.978858</v>
       </c>
       <c r="I5">
-        <v>0.2262634489058469</v>
+        <v>0.7708618124768957</v>
       </c>
       <c r="J5">
-        <v>0.2262634489058469</v>
+        <v>0.7708618124768957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.75437306672444</v>
+        <v>6.418229333333334</v>
       </c>
       <c r="N5">
-        <v>2.75437306672444</v>
+        <v>19.254688</v>
       </c>
       <c r="O5">
-        <v>0.2675748635723513</v>
+        <v>0.4263166911921744</v>
       </c>
       <c r="P5">
-        <v>0.2675748635723513</v>
+        <v>0.4263166911921744</v>
       </c>
       <c r="Q5">
-        <v>7.392331653122</v>
+        <v>66.27647170958933</v>
       </c>
       <c r="R5">
-        <v>7.392331653122</v>
+        <v>596.488245386304</v>
       </c>
       <c r="S5">
-        <v>0.06054241147239166</v>
+        <v>0.3286312572615526</v>
       </c>
       <c r="T5">
-        <v>0.06054241147239166</v>
+        <v>0.3286312572615526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.68385272221425</v>
+        <v>10.326286</v>
       </c>
       <c r="H6">
-        <v>2.68385272221425</v>
+        <v>30.978858</v>
       </c>
       <c r="I6">
-        <v>0.2262634489058469</v>
+        <v>0.7708618124768957</v>
       </c>
       <c r="J6">
-        <v>0.2262634489058469</v>
+        <v>0.7708618124768957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.78987213293396</v>
+        <v>3.860692</v>
       </c>
       <c r="N6">
-        <v>3.78987213293396</v>
+        <v>11.582076</v>
       </c>
       <c r="O6">
-        <v>0.3681689060851948</v>
+        <v>0.256437929165941</v>
       </c>
       <c r="P6">
-        <v>0.3681689060851948</v>
+        <v>0.256437929165941</v>
       </c>
       <c r="Q6">
-        <v>10.17145864081874</v>
+        <v>39.866609749912</v>
       </c>
       <c r="R6">
-        <v>10.17145864081874</v>
+        <v>358.799487749208</v>
       </c>
       <c r="S6">
-        <v>0.08330316647072904</v>
+        <v>0.1976782068646791</v>
       </c>
       <c r="T6">
-        <v>0.08330316647072904</v>
+        <v>0.1976782068646791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10.326286</v>
+      </c>
+      <c r="H7">
+        <v>30.978858</v>
+      </c>
+      <c r="I7">
+        <v>0.7708618124768957</v>
+      </c>
+      <c r="J7">
+        <v>0.7708618124768957</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.776152666666666</v>
+      </c>
+      <c r="N7">
+        <v>14.328458</v>
+      </c>
+      <c r="O7">
+        <v>0.3172453796418847</v>
+      </c>
+      <c r="P7">
+        <v>0.3172453796418846</v>
+      </c>
+      <c r="Q7">
+        <v>49.31991841566266</v>
+      </c>
+      <c r="R7">
+        <v>443.8792657409639</v>
+      </c>
+      <c r="S7">
+        <v>0.2445523483506641</v>
+      </c>
+      <c r="T7">
+        <v>0.244552348350664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.039140333333334</v>
+      </c>
+      <c r="H8">
+        <v>9.117421</v>
+      </c>
+      <c r="I8">
+        <v>0.2268731687002442</v>
+      </c>
+      <c r="J8">
+        <v>0.2268731687002443</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.418229333333334</v>
+      </c>
+      <c r="N8">
+        <v>19.254688</v>
+      </c>
+      <c r="O8">
+        <v>0.4263166911921744</v>
+      </c>
+      <c r="P8">
+        <v>0.4263166911921744</v>
+      </c>
+      <c r="Q8">
+        <v>19.50589963551645</v>
+      </c>
+      <c r="R8">
+        <v>175.553096719648</v>
+      </c>
+      <c r="S8">
+        <v>0.09671981860057212</v>
+      </c>
+      <c r="T8">
+        <v>0.09671981860057212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.68385272221425</v>
-      </c>
-      <c r="H7">
-        <v>2.68385272221425</v>
-      </c>
-      <c r="I7">
-        <v>0.2262634489058469</v>
-      </c>
-      <c r="J7">
-        <v>0.2262634489058469</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.74959567145791</v>
-      </c>
-      <c r="N7">
-        <v>3.74959567145791</v>
-      </c>
-      <c r="O7">
-        <v>0.364256230342454</v>
-      </c>
-      <c r="P7">
-        <v>0.364256230342454</v>
-      </c>
-      <c r="Q7">
-        <v>10.06336255004508</v>
-      </c>
-      <c r="R7">
-        <v>10.06336255004508</v>
-      </c>
-      <c r="S7">
-        <v>0.08241787096272625</v>
-      </c>
-      <c r="T7">
-        <v>0.08241787096272625</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.039140333333334</v>
+      </c>
+      <c r="H9">
+        <v>9.117421</v>
+      </c>
+      <c r="I9">
+        <v>0.2268731687002442</v>
+      </c>
+      <c r="J9">
+        <v>0.2268731687002443</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.860692</v>
+      </c>
+      <c r="N9">
+        <v>11.582076</v>
+      </c>
+      <c r="O9">
+        <v>0.256437929165941</v>
+      </c>
+      <c r="P9">
+        <v>0.256437929165941</v>
+      </c>
+      <c r="Q9">
+        <v>11.73318477177733</v>
+      </c>
+      <c r="R9">
+        <v>105.598662945996</v>
+      </c>
+      <c r="S9">
+        <v>0.05817888556480583</v>
+      </c>
+      <c r="T9">
+        <v>0.05817888556480582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.039140333333334</v>
+      </c>
+      <c r="H10">
+        <v>9.117421</v>
+      </c>
+      <c r="I10">
+        <v>0.2268731687002442</v>
+      </c>
+      <c r="J10">
+        <v>0.2268731687002443</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.776152666666666</v>
+      </c>
+      <c r="N10">
+        <v>14.328458</v>
+      </c>
+      <c r="O10">
+        <v>0.3172453796418847</v>
+      </c>
+      <c r="P10">
+        <v>0.3172453796418846</v>
+      </c>
+      <c r="Q10">
+        <v>14.51539820742422</v>
+      </c>
+      <c r="R10">
+        <v>130.638583866818</v>
+      </c>
+      <c r="S10">
+        <v>0.07197446453486632</v>
+      </c>
+      <c r="T10">
+        <v>0.07197446453486632</v>
       </c>
     </row>
   </sheetData>
